--- a/xlsx/country_comparison/points_positive.xlsx
+++ b/xlsx/country_comparison/points_positive.xlsx
@@ -59,8 +59,7 @@
     <t xml:space="preserve">climate2: Thermal insulation plan (US: also transport)</t>
   </si>
   <si>
-    <t xml:space="preserve">climate3: Ban the sale of new
-combustion-engine cars by 2030</t>
+    <t xml:space="preserve">climate3: Ban the sale of new combustion-engine cars by 2030</t>
   </si>
   <si>
     <t xml:space="preserve">tax1: National redistribution scheme</t>
@@ -438,7 +437,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.637372894323887</v>
+        <v>0.637372904029895</v>
       </c>
       <c r="C2" t="n">
         <v>0.783805341757823</v>
@@ -461,7 +460,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.832071174620072</v>
+        <v>0.832071176976898</v>
       </c>
       <c r="C3" t="n">
         <v>0.857633658350567</v>
@@ -484,7 +483,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.806649691430815</v>
+        <v>0.806649693500696</v>
       </c>
       <c r="C4" t="n">
         <v>0.693828541427267</v>
@@ -507,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.87627771395172</v>
+        <v>0.876277717753633</v>
       </c>
       <c r="C5" t="n">
         <v>0.85583054239144</v>
@@ -530,7 +529,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.568918335307105</v>
+        <v>0.568918325638433</v>
       </c>
       <c r="C6" t="n">
         <v>0.747771232550676</v>
@@ -553,7 +552,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.583722015442157</v>
+        <v>0.583722012843081</v>
       </c>
       <c r="C7" t="n">
         <v>0.57659489697438</v>
@@ -576,7 +575,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.70035532164228</v>
+        <v>0.700355311843266</v>
       </c>
       <c r="C8" t="n">
         <v>0.763638483288072</v>
@@ -599,7 +598,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.794665841865757</v>
+        <v>0.794665836663391</v>
       </c>
       <c r="C9" t="n">
         <v>0.825452653978534</v>
@@ -622,7 +621,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.624076281908213</v>
+        <v>0.624076284194441</v>
       </c>
       <c r="C10" t="n">
         <v>0.583189391484559</v>
@@ -645,7 +644,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.67245098333631</v>
+        <v>0.672450987190444</v>
       </c>
       <c r="C11" t="n">
         <v>0.788729157193707</v>
@@ -668,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.801839173378354</v>
+        <v>0.801839174799188</v>
       </c>
       <c r="C12" t="n">
         <v>0.791202155434969</v>
@@ -691,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.711952633031534</v>
+        <v>0.711952631580924</v>
       </c>
       <c r="C13" t="n">
         <v>0.826585039353645</v>
@@ -714,7 +713,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.798902931050157</v>
+        <v>0.798902933525609</v>
       </c>
       <c r="C14" t="n">
         <v>0.810489188030382</v>
@@ -737,7 +736,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0.714705285848178</v>
+        <v>0.71470528720425</v>
       </c>
       <c r="C15" t="n">
         <v>0.773978648905211</v>
@@ -760,7 +759,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>0.582002500657102</v>
+        <v>0.582002503082714</v>
       </c>
       <c r="C16" t="n">
         <v>0.701421440452333</v>
